--- a/download/CV_Pedro_Rios_2023_Develop.pdf.xlsx
+++ b/download/CV_Pedro_Rios_2023_Develop.pdf.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xamppOld\htdocs\CV2022\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F4945-4C4F-48F0-9C5D-43F4F4C60561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9773F299-AA7B-49CB-A9E4-A6983325B2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>PERFIL</t>
   </si>
@@ -33,30 +34,6 @@
     <t>Pedro  Rios Macias</t>
   </si>
   <si>
-    <t>Como desarrollador Front-End, uno de</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> los apartados que más me gusta es el </t>
-  </si>
-  <si>
-    <t>del diseño de la interface. Es por ello</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> que estoy en continua formación. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procurando en mis proyectos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">asegurarme una correcta afinidad entre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cross-browse, cross-platform </t>
-  </si>
-  <si>
-    <t>y cross-device.</t>
-  </si>
-  <si>
     <t>CONTACTO</t>
   </si>
   <si>
@@ -147,15 +124,9 @@
     <t>Versiones GIT.</t>
   </si>
   <si>
-    <t>ZEMSANIA</t>
-  </si>
-  <si>
     <t>Desarrollo Java, HTML, CSS, JS, MySQL,</t>
   </si>
   <si>
-    <t>IBM</t>
-  </si>
-  <si>
     <t>COMPETENCIAS</t>
   </si>
   <si>
@@ -177,12 +148,6 @@
     <t xml:space="preserve">Creacion aplicación  CINTAS Java, </t>
   </si>
   <si>
-    <t>Desarrollo Access. SQL</t>
-  </si>
-  <si>
-    <t>Puesto Front-End Back-End &amp; JAVA-PHP</t>
-  </si>
-  <si>
     <t>linkedin.com/in/prm360kbcn</t>
   </si>
   <si>
@@ -208,13 +173,61 @@
   </si>
   <si>
     <t>2022-2023</t>
+  </si>
+  <si>
+    <t>Apasinodo del desarrollo Full-Stack</t>
+  </si>
+  <si>
+    <t>con experiencia en Angular, PHP,Java y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL. Experto en la creación de </t>
+  </si>
+  <si>
+    <t>aplicaciones web dinámicas y escalables</t>
+  </si>
+  <si>
+    <t>Enfocado siempre al maximo rendimiento</t>
+  </si>
+  <si>
+    <t>con la excelencia técnica y la resolución</t>
+  </si>
+  <si>
+    <t>creativa de problamas.</t>
+  </si>
+  <si>
+    <t>FullStack Angular NODE-JAVA-PHP-SQL</t>
+  </si>
+  <si>
+    <t>IBM-ZEMSANIA</t>
+  </si>
+  <si>
+    <t>2010-2016</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>ZARCA, S.L.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FullStack Analisis y Desarrollo ERP desde 0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angular, NODE+(Express), SQL, Jira </t>
+  </si>
+  <si>
+    <t>2023-Actual</t>
+  </si>
+  <si>
+    <t>Administración AWS. Control versiones GIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +295,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEAEAEA"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +313,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAEAEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,9 +364,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,6 +380,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -948,11 +980,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3392F348-7182-4986-9FB4-70418F955A13}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,17 +1010,17 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -995,14 +1039,14 @@
       <c r="C12" s="2"/>
       <c r="D12" s="5"/>
       <c r="E12" s="12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1013,27 +1057,27 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="5" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1041,12 +1085,12 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1054,50 +1098,50 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="14">
-        <v>2022</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="5"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A20" s="6"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1105,24 +1149,20 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="14">
-        <v>2021</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="D21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1131,52 +1171,56 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="13">
+        <v>2022</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="14">
-        <v>2018</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="13">
+        <v>2021</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
@@ -1184,37 +1228,35 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="14">
-        <v>2016</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>40</v>
-      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="13">
+        <v>2018</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="19" t="s">
-        <v>52</v>
+      <c r="B30" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1224,7 +1266,9 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -1232,36 +1276,34 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="14">
-        <v>2014</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>42</v>
-      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -1271,8 +1313,10 @@
       <c r="A35" s="2"/>
       <c r="B35" s="7"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="11"/>
+      <c r="D35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
@@ -1281,27 +1325,29 @@
         <v>2022</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="16"/>
+      <c r="D36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="14"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1310,7 +1356,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="18"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1318,33 +1364,31 @@
         <v>2019</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="18" t="s">
-        <v>31</v>
-      </c>
+      <c r="E39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18" t="s">
-        <v>58</v>
+        <v>44</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,36 +1396,40 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="5"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="11"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>2018</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="18"/>
+      <c r="E43" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="17"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="1:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1398,30 +1446,30 @@
         <v>2017</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="17"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="17"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
@@ -1430,37 +1478,37 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="17"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>2016</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F48" s="5"/>
-      <c r="G48" s="17"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="17"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
@@ -1469,21 +1517,21 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="17"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F51" s="5"/>
-      <c r="G51" s="17"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="17"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
@@ -1492,43 +1540,43 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="17"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D54" s="5"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="17"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="24"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D55" s="5"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="17"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="13"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="57" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C58" s="2"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
